--- a/Assessments/answers_Intermtn MS4 2 Transcript.xlsx
+++ b/Assessments/answers_Intermtn MS4 2 Transcript.xlsx
@@ -450,20 +450,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Do you have any PMHx? (counts as 2 independent minor features)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Pain not worse with exertion (requires they clarify exercise 1hr after meal)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Do you have any PMHx? (counts as 2 independent minor features)</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alternative cause of esoph dysphagia becomes obvious (food gets stuck or relieved by regurgitation of food)</t>
+          <t>Alternative cause of esoph dysphagia becomes obvious(food gets stuck or relieved by regurgitation of food)</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Heartburn (Postprandial burning or pain)</t>
@@ -798,7 +800,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Food gets stuck</t>
@@ -842,7 +846,9 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="b">
+        <v>1</v>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Difficulty swallowing liquids</t>
@@ -907,7 +913,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Pattern of hand pain: multiple symmetric joints hurt</t>
@@ -1022,9 +1030,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="b">
-        <v>1</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>Hand pain out of proportion to other joints (must be specific)</t>
@@ -1032,7 +1038,9 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Current heartburn or reflux</t>
